--- a/data/evaluation/evaluation_Center_Winter_Eggplants.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Eggplants.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4331.766209001881</v>
+        <v>4348.920789259842</v>
       </c>
       <c r="C4" t="n">
-        <v>40321384.67381326</v>
+        <v>40278471.24087695</v>
       </c>
       <c r="D4" t="n">
-        <v>6349.912178433121</v>
+        <v>6346.532221684291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08849887671661971</v>
+        <v>0.08946897341944438</v>
       </c>
     </row>
     <row r="5">
